--- a/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2009 Promos  (PDTP).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2009 Promos  (PDTP).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,49 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Garruk Wildspeaker</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Garruk</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>+1: Untap two target lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>−1: Create a 3/3 green Beast creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>−4: Creatures you control get +3/+3 and gain trample until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Loyalty: 3</t>
+          <t>('Garruk Wildspeaker', ['{2}{G}{G}', 'Legendary Planeswalker — Garruk', '+1: Untap two target lands.', '−1: Create a 3/3 green Beast creature token.', '−4: Creatures you control get +3/+3 and gain trample until end of turn.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
